--- a/data/macroeconomic/economic_activity.xlsx
+++ b/data/macroeconomic/economic_activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\time_series_padova\data\macroeconomic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFC530B-09D0-4F98-BA29-93FE3FB525B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1C82C6-DDB4-4FF3-963D-08D2CE5D8126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3E59D194-54AD-4097-BBAD-40E9B6DCEB8A}"/>
   </bookViews>
@@ -96,9 +96,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -438,7 +438,7 @@
   <dimension ref="A1:B237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/macroeconomic/economic_activity.xlsx
+++ b/data/macroeconomic/economic_activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\time_series_padova\data\macroeconomic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1C82C6-DDB4-4FF3-963D-08D2CE5D8126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E06F338-BC03-4842-A7B8-2FE16717060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3E59D194-54AD-4097-BBAD-40E9B6DCEB8A}"/>
   </bookViews>
@@ -35,6 +35,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Daniel Gutiérrez Velez</author>
+  </authors>
+  <commentList>
+    <comment ref="B239" authorId="0" shapeId="0" xr:uid="{49884BB8-7802-48C4-A943-558C1B0C7E72}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel Gutiérrez Velez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+forecast</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
@@ -51,7 +85,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +105,25 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -94,11 +147,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -434,11 +490,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3221B3D2-D52E-4817-9E3D-291C3DFDD104}">
-  <dimension ref="A1:B237"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3221B3D2-D52E-4817-9E3D-291C3DFDD104}">
+  <dimension ref="A1:B239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="F230" sqref="F230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,7 +515,7 @@
         <v>38353</v>
       </c>
       <c r="B2" s="3">
-        <v>59.81745366343285</v>
+        <v>59.823157589807138</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -467,7 +523,7 @@
         <v>38384</v>
       </c>
       <c r="B3" s="3">
-        <v>61.443991580095123</v>
+        <v>61.45435547932113</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -475,7 +531,7 @@
         <v>38412</v>
       </c>
       <c r="B4" s="3">
-        <v>62.211394732664097</v>
+        <v>62.215950630927786</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -483,7 +539,7 @@
         <v>38443</v>
       </c>
       <c r="B5" s="3">
-        <v>62.977884119548477</v>
+        <v>62.973393793611223</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -491,7 +547,7 @@
         <v>38473</v>
       </c>
       <c r="B6" s="3">
-        <v>62.673039518358642</v>
+        <v>62.673176861793721</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -499,7 +555,7 @@
         <v>38504</v>
       </c>
       <c r="B7" s="3">
-        <v>63.460773971212113</v>
+        <v>63.465303639737414</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -507,7 +563,7 @@
         <v>38534</v>
       </c>
       <c r="B8" s="3">
-        <v>63.968829527086001</v>
+        <v>63.971452058559983</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -515,7 +571,7 @@
         <v>38565</v>
       </c>
       <c r="B9" s="3">
-        <v>65.346180996255882</v>
+        <v>65.348580742788471</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -523,7 +579,7 @@
         <v>38596</v>
       </c>
       <c r="B10" s="3">
-        <v>65.953860793922189</v>
+        <v>65.955655545848828</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -531,7 +587,7 @@
         <v>38626</v>
       </c>
       <c r="B11" s="3">
-        <v>66.028157641763983</v>
+        <v>66.000905693688921</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -539,7 +595,7 @@
         <v>38657</v>
       </c>
       <c r="B12" s="3">
-        <v>68.85124688019873</v>
+        <v>68.844852604100254</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -547,7 +603,7 @@
         <v>38687</v>
       </c>
       <c r="B13" s="3">
-        <v>73.722508165019079</v>
+        <v>73.728536949372497</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -555,7 +611,7 @@
         <v>38718</v>
       </c>
       <c r="B14" s="3">
-        <v>62.336057191531083</v>
+        <v>62.342438355926589</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -563,7 +619,7 @@
         <v>38749</v>
       </c>
       <c r="B15" s="3">
-        <v>64.489643745093787</v>
+        <v>64.500979121496684</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -571,7 +627,7 @@
         <v>38777</v>
       </c>
       <c r="B16" s="3">
-        <v>66.853220026501418</v>
+        <v>66.858285685653541</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -579,7 +635,7 @@
         <v>38808</v>
       </c>
       <c r="B17" s="3">
-        <v>64.299520361630215</v>
+        <v>64.294349553764121</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -587,7 +643,7 @@
         <v>38838</v>
       </c>
       <c r="B18" s="3">
-        <v>66.883553482686338</v>
+        <v>66.883571775172044</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -595,7 +651,7 @@
         <v>38869</v>
       </c>
       <c r="B19" s="3">
-        <v>66.631771751244258</v>
+        <v>66.636714902721224</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -603,7 +659,7 @@
         <v>38899</v>
       </c>
       <c r="B20" s="3">
-        <v>68.527466296433076</v>
+        <v>68.530324922681444</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -611,7 +667,7 @@
         <v>38930</v>
       </c>
       <c r="B21" s="3">
-        <v>69.853524040802313</v>
+        <v>69.856047201038834</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -619,7 +675,7 @@
         <v>38961</v>
       </c>
       <c r="B22" s="3">
-        <v>71.334636247582921</v>
+        <v>71.336316441672338</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -627,7 +683,7 @@
         <v>38991</v>
       </c>
       <c r="B23" s="3">
-        <v>71.182024634279898</v>
+        <v>71.153141303289729</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -635,7 +691,7 @@
         <v>39022</v>
       </c>
       <c r="B24" s="3">
-        <v>74.715188596035162</v>
+        <v>74.708362270770735</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -643,7 +699,7 @@
         <v>39052</v>
       </c>
       <c r="B25" s="3">
-        <v>77.469085953667175</v>
+        <v>77.475160793300489</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -651,7 +707,7 @@
         <v>39083</v>
       </c>
       <c r="B26" s="3">
-        <v>66.1356436140277</v>
+        <v>66.142464576724407</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -659,7 +715,7 @@
         <v>39114</v>
       </c>
       <c r="B27" s="3">
-        <v>68.692742499480715</v>
+        <v>68.704947021294387</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -667,7 +723,7 @@
         <v>39142</v>
       </c>
       <c r="B28" s="3">
-        <v>71.120511410728895</v>
+        <v>71.126046759445373</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -675,7 +731,7 @@
         <v>39173</v>
       </c>
       <c r="B29" s="3">
-        <v>68.170554918109033</v>
+        <v>68.165347249178851</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -683,7 +739,7 @@
         <v>39203</v>
       </c>
       <c r="B30" s="3">
-        <v>71.190985459082839</v>
+        <v>71.191205964028399</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -691,7 +747,7 @@
         <v>39234</v>
       </c>
       <c r="B31" s="3">
-        <v>71.640622848288203</v>
+        <v>71.646230104545907</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -699,7 +755,7 @@
         <v>39264</v>
       </c>
       <c r="B32" s="3">
-        <v>72.881162001578772</v>
+        <v>72.884178878492307</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -707,7 +763,7 @@
         <v>39295</v>
       </c>
       <c r="B33" s="3">
-        <v>74.100301710030465</v>
+        <v>74.103014707057085</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -715,7 +771,7 @@
         <v>39326</v>
       </c>
       <c r="B34" s="3">
-        <v>75.421698569512856</v>
+        <v>75.423746804768356</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -723,7 +779,7 @@
         <v>39356</v>
       </c>
       <c r="B35" s="3">
-        <v>75.672583568217675</v>
+        <v>75.639713727621256</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -731,7 +787,7 @@
         <v>39387</v>
       </c>
       <c r="B36" s="3">
-        <v>79.187522498710678</v>
+        <v>79.180503969521936</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -739,7 +795,7 @@
         <v>39417</v>
       </c>
       <c r="B37" s="3">
-        <v>82.376371244306156</v>
+        <v>82.383300579395808</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -747,7 +803,7 @@
         <v>39448</v>
       </c>
       <c r="B38" s="3">
-        <v>70.437427152261563</v>
+        <v>70.444690046190203</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -755,7 +811,7 @@
         <v>39479</v>
       </c>
       <c r="B39" s="3">
-        <v>73.107473424502984</v>
+        <v>73.120643201264556</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -763,7 +819,7 @@
         <v>39508</v>
       </c>
       <c r="B40" s="3">
-        <v>72.214680784495172</v>
+        <v>72.220137787159317</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -771,7 +827,7 @@
         <v>39539</v>
       </c>
       <c r="B41" s="3">
-        <v>73.206891878851692</v>
+        <v>73.200756645065113</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -779,7 +835,7 @@
         <v>39569</v>
       </c>
       <c r="B42" s="3">
-        <v>73.636903142852958</v>
+        <v>73.6368840159668</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -787,7 +843,7 @@
         <v>39600</v>
       </c>
       <c r="B43" s="3">
-        <v>73.788508129882118</v>
+        <v>73.794241562378389</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -795,7 +851,7 @@
         <v>39630</v>
       </c>
       <c r="B44" s="3">
-        <v>76.195232465487351</v>
+        <v>76.198325007704526</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -803,7 +859,7 @@
         <v>39661</v>
       </c>
       <c r="B45" s="3">
-        <v>76.188229621115042</v>
+        <v>76.19136561954582</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -811,7 +867,7 @@
         <v>39692</v>
       </c>
       <c r="B46" s="3">
-        <v>77.365786995291984</v>
+        <v>77.368074254235665</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -819,7 +875,7 @@
         <v>39722</v>
       </c>
       <c r="B47" s="3">
-        <v>77.00659193947287</v>
+        <v>76.97378314316127</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -827,7 +883,7 @@
         <v>39753</v>
       </c>
       <c r="B48" s="3">
-        <v>78.062064434623949</v>
+        <v>78.053992794685044</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -835,7 +891,7 @@
         <v>39783</v>
       </c>
       <c r="B49" s="3">
-        <v>82.495536069465146</v>
+        <v>82.502431960946197</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -843,7 +899,7 @@
         <v>39814</v>
       </c>
       <c r="B50" s="3">
-        <v>69.334350630898498</v>
+        <v>69.341513783012843</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -851,7 +907,7 @@
         <v>39845</v>
       </c>
       <c r="B51" s="3">
-        <v>72.30629865505442</v>
+        <v>72.319608221704073</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -859,7 +915,7 @@
         <v>39873</v>
       </c>
       <c r="B52" s="3">
-        <v>74.506416443390222</v>
+        <v>74.51191151785531</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -867,7 +923,7 @@
         <v>39904</v>
       </c>
       <c r="B53" s="3">
-        <v>72.761035570408737</v>
+        <v>72.754462491045075</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -875,7 +931,7 @@
         <v>39934</v>
       </c>
       <c r="B54" s="3">
-        <v>75.224257252777775</v>
+        <v>75.224672583681965</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -883,7 +939,7 @@
         <v>39965</v>
       </c>
       <c r="B55" s="3">
-        <v>74.743955073798702</v>
+        <v>74.750265020873144</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -891,7 +947,7 @@
         <v>39995</v>
       </c>
       <c r="B56" s="3">
-        <v>77.836831096670934</v>
+        <v>77.840476409911943</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -899,7 +955,7 @@
         <v>40026</v>
       </c>
       <c r="B57" s="3">
-        <v>76.370054215060662</v>
+        <v>76.373521861572641</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -907,7 +963,7 @@
         <v>40057</v>
       </c>
       <c r="B58" s="3">
-        <v>77.946150072595003</v>
+        <v>77.948886279562885</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -915,7 +971,7 @@
         <v>40087</v>
       </c>
       <c r="B59" s="3">
-        <v>78.216222495659196</v>
+        <v>78.180763567753658</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -923,7 +979,7 @@
         <v>40118</v>
       </c>
       <c r="B60" s="3">
-        <v>81.127979879058358</v>
+        <v>81.119785440566801</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -931,7 +987,7 @@
         <v>40148</v>
       </c>
       <c r="B61" s="3">
-        <v>86.127736013178733</v>
+        <v>86.135420221010833</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -939,7 +995,7 @@
         <v>40179</v>
       </c>
       <c r="B62" s="3">
-        <v>72.090434911865898</v>
+        <v>72.098036733294109</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -947,7 +1003,7 @@
         <v>40210</v>
       </c>
       <c r="B63" s="3">
-        <v>74.708857649803733</v>
+        <v>74.722831489158935</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -955,7 +1011,7 @@
         <v>40238</v>
       </c>
       <c r="B64" s="3">
-        <v>78.000259114476805</v>
+        <v>78.005795091590201</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -963,7 +1019,7 @@
         <v>40269</v>
       </c>
       <c r="B65" s="3">
-        <v>75.950260518713989</v>
+        <v>75.943198845456521</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -971,7 +1027,7 @@
         <v>40299</v>
       </c>
       <c r="B66" s="3">
-        <v>78.484498674211096</v>
+        <v>78.484740494459459</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -979,7 +1035,7 @@
         <v>40330</v>
       </c>
       <c r="B67" s="3">
-        <v>78.328594124849147</v>
+        <v>78.335204843516735</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -987,7 +1043,7 @@
         <v>40360</v>
       </c>
       <c r="B68" s="3">
-        <v>79.570336182483246</v>
+        <v>79.573983049620878</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -995,7 +1051,7 @@
         <v>40391</v>
       </c>
       <c r="B69" s="3">
-        <v>79.86981870027185</v>
+        <v>79.873309043774981</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1003,7 +1059,7 @@
         <v>40422</v>
       </c>
       <c r="B70" s="3">
-        <v>81.25691528582577</v>
+        <v>81.259740143933385</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1011,7 +1067,7 @@
         <v>40452</v>
       </c>
       <c r="B71" s="3">
-        <v>81.828082262065536</v>
+        <v>81.791250136281207</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1019,7 +1075,7 @@
         <v>40483</v>
       </c>
       <c r="B72" s="3">
-        <v>85.224629385518227</v>
+        <v>85.216626036568201</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1027,7 +1083,7 @@
         <v>40513</v>
       </c>
       <c r="B73" s="3">
-        <v>90.907001832471835</v>
+        <v>90.91497273490306</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1035,7 +1091,7 @@
         <v>40544</v>
       </c>
       <c r="B74" s="3">
-        <v>77.372888690319911</v>
+        <v>77.381150258427482</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1043,7 +1099,7 @@
         <v>40575</v>
       </c>
       <c r="B75" s="3">
-        <v>78.995773468958646</v>
+        <v>79.010071458322983</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1051,7 +1107,7 @@
         <v>40603</v>
       </c>
       <c r="B76" s="3">
-        <v>83.110867160724553</v>
+        <v>83.117074903470225</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1059,7 +1115,7 @@
         <v>40634</v>
       </c>
       <c r="B77" s="3">
-        <v>80.430081037123202</v>
+        <v>80.423441772912611</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1067,7 +1123,7 @@
         <v>40664</v>
       </c>
       <c r="B78" s="3">
-        <v>83.679782801034492</v>
+        <v>83.680324833072234</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1075,7 +1131,7 @@
         <v>40695</v>
       </c>
       <c r="B79" s="3">
-        <v>83.624153099358452</v>
+        <v>83.630197609415504</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1083,7 +1139,7 @@
         <v>40725</v>
       </c>
       <c r="B80" s="3">
-        <v>85.108828667361266</v>
+        <v>85.112408186698588</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1091,7 +1147,7 @@
         <v>40756</v>
       </c>
       <c r="B81" s="3">
-        <v>87.099631584542237</v>
+        <v>87.104044514573047</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1099,7 +1155,7 @@
         <v>40787</v>
       </c>
       <c r="B82" s="3">
-        <v>86.704887852476077</v>
+        <v>86.707995824033958</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1107,7 +1163,7 @@
         <v>40817</v>
       </c>
       <c r="B83" s="3">
-        <v>86.860660038393164</v>
+        <v>86.823206973904249</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1115,7 +1171,7 @@
         <v>40848</v>
       </c>
       <c r="B84" s="3">
-        <v>91.030432998708704</v>
+        <v>91.021324220328722</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1123,7 +1179,7 @@
         <v>40878</v>
       </c>
       <c r="B85" s="3">
-        <v>95.473541504841833</v>
+        <v>95.480288348683061</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1131,7 +1187,7 @@
         <v>40909</v>
       </c>
       <c r="B86" s="3">
-        <v>81.536892201350625</v>
+        <v>81.54470864063822</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1139,7 +1195,7 @@
         <v>40940</v>
       </c>
       <c r="B87" s="3">
-        <v>84.426972045283833</v>
+        <v>84.441472874276428</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1147,7 +1203,7 @@
         <v>40969</v>
       </c>
       <c r="B88" s="3">
-        <v>87.875435651882711</v>
+        <v>87.881521261278124</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1155,7 +1211,7 @@
         <v>41000</v>
       </c>
       <c r="B89" s="3">
-        <v>84.083418477442507</v>
+        <v>84.076175101322121</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1163,7 +1219,7 @@
         <v>41030</v>
       </c>
       <c r="B90" s="3">
-        <v>87.912731505945146</v>
+        <v>87.912830120227767</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1171,7 +1227,7 @@
         <v>41061</v>
       </c>
       <c r="B91" s="3">
-        <v>87.795179267388178</v>
+        <v>87.801728648600786</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1179,7 +1235,7 @@
         <v>41091</v>
       </c>
       <c r="B92" s="3">
-        <v>88.257841215041225</v>
+        <v>88.261504442905121</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1187,7 +1243,7 @@
         <v>41122</v>
       </c>
       <c r="B93" s="3">
-        <v>87.411995808672742</v>
+        <v>87.415890883870773</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1195,7 +1251,7 @@
         <v>41153</v>
       </c>
       <c r="B94" s="3">
-        <v>88.937167018255963</v>
+        <v>88.940416161580359</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1203,7 +1259,7 @@
         <v>41183</v>
       </c>
       <c r="B95" s="3">
-        <v>88.788460403212852</v>
+        <v>88.750161272839236</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1211,7 +1267,7 @@
         <v>41214</v>
       </c>
       <c r="B96" s="3">
-        <v>93.682893423103124</v>
+        <v>93.674695451347716</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1219,7 +1275,7 @@
         <v>41244</v>
       </c>
       <c r="B97" s="3">
-        <v>98.080434002128257</v>
+        <v>98.088316160820426</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1227,7 +1283,7 @@
         <v>41275</v>
       </c>
       <c r="B98" s="3">
-        <v>85.002361121751974</v>
+        <v>85.010774949950957</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1235,7 +1291,7 @@
         <v>41306</v>
       </c>
       <c r="B99" s="3">
-        <v>86.363738790309284</v>
+        <v>86.38044006486993</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1243,7 +1299,7 @@
         <v>41334</v>
       </c>
       <c r="B100" s="3">
-        <v>88.627729623815071</v>
+        <v>88.634620956418942</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1251,7 +1307,7 @@
         <v>41365</v>
       </c>
       <c r="B101" s="3">
-        <v>89.846254014837655</v>
+        <v>89.838018337015953</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1259,7 +1315,7 @@
         <v>41395</v>
       </c>
       <c r="B102" s="3">
-        <v>92.468199327990945</v>
+        <v>92.468556705887408</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1267,7 +1323,7 @@
         <v>41426</v>
       </c>
       <c r="B103" s="3">
-        <v>91.872739736697142</v>
+        <v>91.880641245404561</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1275,7 +1331,7 @@
         <v>41456</v>
       </c>
       <c r="B104" s="3">
-        <v>94.404240984061261</v>
+        <v>94.408743046515283</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1283,7 +1339,7 @@
         <v>41487</v>
       </c>
       <c r="B105" s="3">
-        <v>93.328713738581598</v>
+        <v>93.333856771239539</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1291,7 +1347,7 @@
         <v>41518</v>
       </c>
       <c r="B106" s="3">
-        <v>94.192341369640474</v>
+        <v>94.19623952026015</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1299,7 +1355,7 @@
         <v>41548</v>
       </c>
       <c r="B107" s="3">
-        <v>94.280423581927735</v>
+        <v>94.236544626285252</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1307,7 +1363,7 @@
         <v>41579</v>
       </c>
       <c r="B108" s="3">
-        <v>99.441642025981807</v>
+        <v>99.431681740947695</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1315,7 +1371,7 @@
         <v>41609</v>
       </c>
       <c r="B109" s="3">
-        <v>105.22055873087844</v>
+        <v>105.22882508167774</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1323,7 +1379,7 @@
         <v>41640</v>
       </c>
       <c r="B110" s="3">
-        <v>88.960654960085733</v>
+        <v>88.969895405862104</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1331,7 +1387,7 @@
         <v>41671</v>
       </c>
       <c r="B111" s="3">
-        <v>92.638646245944287</v>
+        <v>92.656109611940863</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1339,7 +1395,7 @@
         <v>41699</v>
       </c>
       <c r="B112" s="3">
-        <v>95.700937938028801</v>
+        <v>95.708017192020776</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -1347,7 +1403,7 @@
         <v>41730</v>
       </c>
       <c r="B113" s="3">
-        <v>92.158931096676</v>
+        <v>92.149946475037382</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1355,7 +1411,7 @@
         <v>41760</v>
       </c>
       <c r="B114" s="3">
-        <v>95.525328322325322</v>
+        <v>95.525810556495742</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -1363,7 +1419,7 @@
         <v>41791</v>
       </c>
       <c r="B115" s="3">
-        <v>95.354124958696232</v>
+        <v>95.361993541497341</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -1371,7 +1427,7 @@
         <v>41821</v>
       </c>
       <c r="B116" s="3">
-        <v>97.623720833821778</v>
+        <v>97.628710751197119</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -1379,7 +1435,7 @@
         <v>41852</v>
       </c>
       <c r="B117" s="3">
-        <v>97.624448607013591</v>
+        <v>97.629417915932365</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -1387,7 +1443,7 @@
         <v>41883</v>
       </c>
       <c r="B118" s="3">
-        <v>98.601989630844486</v>
+        <v>98.606092747364542</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -1395,7 +1451,7 @@
         <v>41913</v>
       </c>
       <c r="B119" s="3">
-        <v>98.4692628724044</v>
+        <v>98.42277840070139</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -1403,7 +1459,7 @@
         <v>41944</v>
       </c>
       <c r="B120" s="3">
-        <v>102.35393671805014</v>
+        <v>102.34373637146017</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -1411,7 +1467,7 @@
         <v>41974</v>
       </c>
       <c r="B121" s="3">
-        <v>109.15932600741371</v>
+        <v>109.16879922179395</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -1419,7 +1475,7 @@
         <v>42005</v>
       </c>
       <c r="B122" s="3">
-        <v>91.625289876259615</v>
+        <v>91.634830756424307</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -1427,7 +1483,7 @@
         <v>42036</v>
       </c>
       <c r="B123" s="3">
-        <v>94.904818065510412</v>
+        <v>94.923252517211793</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -1435,7 +1491,7 @@
         <v>42064</v>
       </c>
       <c r="B124" s="3">
-        <v>98.628435763463258</v>
+        <v>98.636411281138123</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -1443,7 +1499,7 @@
         <v>42095</v>
       </c>
       <c r="B125" s="3">
-        <v>95.344098453578525</v>
+        <v>95.334694730149096</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -1451,7 +1507,7 @@
         <v>42125</v>
       </c>
       <c r="B126" s="3">
-        <v>98.875761439209967</v>
+        <v>98.876190515892063</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -1459,7 +1515,7 @@
         <v>42156</v>
       </c>
       <c r="B127" s="3">
-        <v>99.230846427919715</v>
+        <v>99.239152403457069</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -1467,7 +1523,7 @@
         <v>42186</v>
       </c>
       <c r="B128" s="3">
-        <v>102.05293441830266</v>
+        <v>102.05925059816919</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -1475,7 +1531,7 @@
         <v>42217</v>
       </c>
       <c r="B129" s="3">
-        <v>101.31740891480739</v>
+        <v>101.32358560651224</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -1483,7 +1539,7 @@
         <v>42248</v>
       </c>
       <c r="B130" s="3">
-        <v>101.37865476212002</v>
+        <v>101.38285573121672</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -1491,7 +1547,7 @@
         <v>42278</v>
       </c>
       <c r="B131" s="3">
-        <v>100.71956062148509</v>
+        <v>100.67097450113718</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -1499,7 +1555,7 @@
         <v>42309</v>
       </c>
       <c r="B132" s="3">
-        <v>104.73070916688094</v>
+        <v>104.71836711646117</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -1507,7 +1563,7 @@
         <v>42339</v>
       </c>
       <c r="B133" s="3">
-        <v>111.19148209046234</v>
+        <v>111.20043424223098</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -1515,7 +1571,7 @@
         <v>42370</v>
       </c>
       <c r="B134" s="3">
-        <v>93.237743949900704</v>
+        <v>93.24880770838692</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -1523,7 +1579,7 @@
         <v>42401</v>
       </c>
       <c r="B135" s="3">
-        <v>99.121000276907139</v>
+        <v>99.14128331383003</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -1531,7 +1587,7 @@
         <v>42430</v>
       </c>
       <c r="B136" s="3">
-        <v>99.836596590867373</v>
+        <v>99.845746472389166</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -1539,7 +1595,7 @@
         <v>42461</v>
       </c>
       <c r="B137" s="3">
-        <v>98.102621864030766</v>
+        <v>98.092579729327909</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -1547,7 +1603,7 @@
         <v>42491</v>
       </c>
       <c r="B138" s="3">
-        <v>100.66659529820203</v>
+        <v>100.66713835936514</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -1555,7 +1611,7 @@
         <v>42522</v>
       </c>
       <c r="B139" s="3">
-        <v>101.54767792277939</v>
+        <v>101.55701808507884</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -1563,7 +1619,7 @@
         <v>42552</v>
       </c>
       <c r="B140" s="3">
-        <v>100.44340914999761</v>
+        <v>100.45039250797932</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -1571,7 +1627,7 @@
         <v>42583</v>
       </c>
       <c r="B141" s="3">
-        <v>104.71654262332031</v>
+        <v>104.72327010551609</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -1579,7 +1635,7 @@
         <v>42614</v>
       </c>
       <c r="B142" s="3">
-        <v>103.78094958887456</v>
+        <v>103.78597547362465</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -1587,7 +1643,7 @@
         <v>42644</v>
       </c>
       <c r="B143" s="3">
-        <v>102.05215025673628</v>
+        <v>101.99776496317054</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -1595,7 +1651,7 @@
         <v>42675</v>
       </c>
       <c r="B144" s="3">
-        <v>107.96803552030727</v>
+        <v>107.95409433887018</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -1603,7 +1659,7 @@
         <v>42705</v>
       </c>
       <c r="B145" s="3">
-        <v>114.79371394289424</v>
+        <v>114.80296592727923</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -1611,7 +1667,7 @@
         <v>42736</v>
       </c>
       <c r="B146" s="3">
-        <v>94.588589215975134</v>
+        <v>94.5990969633623</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -1619,7 +1675,7 @@
         <v>42767</v>
       </c>
       <c r="B147" s="3">
-        <v>98.758437638269413</v>
+        <v>98.780106566117752</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -1627,7 +1683,7 @@
         <v>42795</v>
       </c>
       <c r="B148" s="3">
-        <v>102.30015756887694</v>
+        <v>102.30904756244186</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -1635,7 +1691,7 @@
         <v>42826</v>
       </c>
       <c r="B149" s="3">
-        <v>97.780055463823217</v>
+        <v>97.768993977199287</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -1643,7 +1699,7 @@
         <v>42856</v>
       </c>
       <c r="B150" s="3">
-        <v>102.02682291714957</v>
+        <v>102.02729194476265</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -1651,7 +1707,7 @@
         <v>42887</v>
       </c>
       <c r="B151" s="3">
-        <v>104.46633854298146</v>
+        <v>104.47660024608956</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -1659,7 +1715,7 @@
         <v>42917</v>
       </c>
       <c r="B152" s="3">
-        <v>104.15106162502015</v>
+        <v>104.15773677322606</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -1667,7 +1723,7 @@
         <v>42948</v>
       </c>
       <c r="B153" s="3">
-        <v>105.8401248070775</v>
+        <v>105.84667272252149</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -1675,7 +1731,7 @@
         <v>42979</v>
       </c>
       <c r="B154" s="3">
-        <v>104.28881508511331</v>
+        <v>104.29426383888037</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -1683,7 +1739,7 @@
         <v>43009</v>
       </c>
       <c r="B155" s="3">
-        <v>103.27107869288268</v>
+        <v>103.21414629809667</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -1691,7 +1747,7 @@
         <v>43040</v>
       </c>
       <c r="B156" s="3">
-        <v>108.98867766054265</v>
+        <v>108.97582321684931</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -1699,7 +1755,7 @@
         <v>43070</v>
       </c>
       <c r="B157" s="3">
-        <v>116.7931468847348</v>
+        <v>116.80352599289941</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -1707,7 +1763,7 @@
         <v>43101</v>
       </c>
       <c r="B158" s="3">
-        <v>96.075923064778578</v>
+        <v>96.086897723872227</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -1715,7 +1771,7 @@
         <v>43132</v>
       </c>
       <c r="B159" s="3">
-        <v>100.31830133177651</v>
+        <v>100.33879323149246</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -1723,7 +1779,7 @@
         <v>43160</v>
       </c>
       <c r="B160" s="3">
-        <v>103.96260795790344</v>
+        <v>103.96913893218252</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -1731,7 +1787,7 @@
         <v>43191</v>
       </c>
       <c r="B161" s="3">
-        <v>101.73689469720935</v>
+        <v>101.72269311976825</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -1739,7 +1795,7 @@
         <v>43221</v>
       </c>
       <c r="B162" s="3">
-        <v>104.28363145661044</v>
+        <v>104.2829253548972</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -1747,7 +1803,7 @@
         <v>43252</v>
       </c>
       <c r="B163" s="3">
-        <v>106.31470115746934</v>
+        <v>106.32314443870365</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -1755,7 +1811,7 @@
         <v>43282</v>
       </c>
       <c r="B164" s="3">
-        <v>107.24503516915111</v>
+        <v>107.24982724391126</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -1763,7 +1819,7 @@
         <v>43313</v>
       </c>
       <c r="B165" s="3">
-        <v>109.12181097715894</v>
+        <v>109.12809734514819</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -1771,7 +1827,7 @@
         <v>43344</v>
       </c>
       <c r="B166" s="3">
-        <v>106.89572433475445</v>
+        <v>106.90132293632833</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -1779,7 +1835,7 @@
         <v>43374</v>
       </c>
       <c r="B167" s="3">
-        <v>106.91495907165395</v>
+        <v>106.86249855237764</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -1787,7 +1843,7 @@
         <v>43405</v>
       </c>
       <c r="B168" s="3">
-        <v>112.69497776598338</v>
+        <v>112.68486339364784</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -1795,7 +1851,7 @@
         <v>43435</v>
       </c>
       <c r="B169" s="3">
-        <v>118.95260722706121</v>
+        <v>118.96697193918102</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -1803,7 +1859,7 @@
         <v>43466</v>
       </c>
       <c r="B170" s="3">
-        <v>99.562596584877156</v>
+        <v>99.574002503329737</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -1811,7 +1867,7 @@
         <v>43497</v>
       </c>
       <c r="B171" s="3">
-        <v>103.83407931252127</v>
+        <v>103.85099348202394</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -1819,7 +1875,7 @@
         <v>43525</v>
       </c>
       <c r="B172" s="3">
-        <v>107.40255793562201</v>
+        <v>107.41079892881673</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -1827,7 +1883,7 @@
         <v>43556</v>
       </c>
       <c r="B173" s="3">
-        <v>104.16268130104255</v>
+        <v>104.14959001749307</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -1835,7 +1891,7 @@
         <v>43586</v>
       </c>
       <c r="B174" s="3">
-        <v>108.65475442560401</v>
+        <v>108.65636406870452</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -1843,7 +1899,7 @@
         <v>43617</v>
       </c>
       <c r="B175" s="3">
-        <v>108.88439634157353</v>
+        <v>108.89445592968585</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -1851,7 +1907,7 @@
         <v>43647</v>
       </c>
       <c r="B176" s="3">
-        <v>111.84449697388609</v>
+        <v>111.84942920325447</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -1859,7 +1915,7 @@
         <v>43678</v>
       </c>
       <c r="B177" s="3">
-        <v>111.89502727074749</v>
+        <v>111.89979130324413</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -1867,7 +1923,7 @@
         <v>43709</v>
       </c>
       <c r="B178" s="3">
-        <v>109.04431082877022</v>
+        <v>109.05159037980832</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -1875,7 +1931,7 @@
         <v>43739</v>
       </c>
       <c r="B179" s="3">
-        <v>110.36296354025743</v>
+        <v>110.29347454142705</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -1883,7 +1939,7 @@
         <v>43770</v>
       </c>
       <c r="B180" s="3">
-        <v>115.37786822913283</v>
+        <v>115.37402623798097</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -1891,7 +1947,7 @@
         <v>43800</v>
       </c>
       <c r="B181" s="3">
-        <v>122.59550515708759</v>
+        <v>122.61672130535418</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -1899,7 +1955,7 @@
         <v>43831</v>
       </c>
       <c r="B182" s="3">
-        <v>103.15852890052454</v>
+        <v>103.16773344693347</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -1907,7 +1963,7 @@
         <v>43862</v>
       </c>
       <c r="B183" s="3">
-        <v>107.80491647309259</v>
+        <v>107.81747935532539</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -1915,7 +1971,7 @@
         <v>43891</v>
       </c>
       <c r="B184" s="3">
-        <v>100.68777348286974</v>
+        <v>100.68529886156894</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -1923,7 +1979,7 @@
         <v>43922</v>
       </c>
       <c r="B185" s="3">
-        <v>82.977992329720266</v>
+        <v>82.969846618458277</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -1931,7 +1987,7 @@
         <v>43952</v>
       </c>
       <c r="B186" s="3">
-        <v>89.675053590612691</v>
+        <v>89.671166048691347</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -1939,7 +1995,7 @@
         <v>43983</v>
       </c>
       <c r="B187" s="3">
-        <v>95.229524545291426</v>
+        <v>95.229006863599011</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -1947,7 +2003,7 @@
         <v>44013</v>
       </c>
       <c r="B188" s="3">
-        <v>99.96989990359495</v>
+        <v>99.963958157565997</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -1955,7 +2011,7 @@
         <v>44044</v>
       </c>
       <c r="B189" s="3">
-        <v>100.29714834743484</v>
+        <v>100.29202669533963</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -1963,7 +2019,7 @@
         <v>44075</v>
       </c>
       <c r="B190" s="3">
-        <v>102.04589994954982</v>
+        <v>102.04543151487198</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -1971,7 +2027,7 @@
         <v>44105</v>
       </c>
       <c r="B191" s="3">
-        <v>105.13651620954174</v>
+        <v>105.13297388121016</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -1979,7 +2035,7 @@
         <v>44136</v>
       </c>
       <c r="B192" s="3">
-        <v>111.01745433346875</v>
+        <v>111.01878914454653</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -1987,7 +2043,7 @@
         <v>44166</v>
       </c>
       <c r="B193" s="3">
-        <v>119.78222873610234</v>
+        <v>119.7892262136921</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -1995,7 +2051,7 @@
         <v>44197</v>
       </c>
       <c r="B194" s="3">
-        <v>99.525567962934147</v>
+        <v>99.522053281215889</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -2003,7 +2059,7 @@
         <v>44228</v>
       </c>
       <c r="B195" s="3">
-        <v>104.22404631191075</v>
+        <v>104.21527883991071</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -2011,7 +2067,7 @@
         <v>44256</v>
       </c>
       <c r="B196" s="3">
-        <v>111.94615107567778</v>
+        <v>111.93472683796981</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -2019,7 +2075,7 @@
         <v>44287</v>
       </c>
       <c r="B197" s="3">
-        <v>104.33902790400273</v>
+        <v>104.33321822060773</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -2027,7 +2083,7 @@
         <v>44317</v>
       </c>
       <c r="B198" s="3">
-        <v>101.75892884599091</v>
+        <v>101.76141263761565</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -2035,7 +2091,7 @@
         <v>44348</v>
       </c>
       <c r="B199" s="3">
-        <v>109.98174640627249</v>
+        <v>109.99565826260896</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -2043,7 +2099,7 @@
         <v>44378</v>
       </c>
       <c r="B200" s="3">
-        <v>113.11725124576395</v>
+        <v>113.11950956547687</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -2051,7 +2107,7 @@
         <v>44409</v>
       </c>
       <c r="B201" s="3">
-        <v>112.00923907329133</v>
+        <v>112.01217564593442</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -2059,7 +2115,7 @@
         <v>44440</v>
       </c>
       <c r="B202" s="3">
-        <v>115.72235557982768</v>
+        <v>115.72251295712341</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -2067,7 +2123,7 @@
         <v>44470</v>
       </c>
       <c r="B203" s="3">
-        <v>115.85566906664081</v>
+        <v>115.83775808423565</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -2075,7 +2131,7 @@
         <v>44501</v>
       </c>
       <c r="B204" s="3">
-        <v>122.70746919014445</v>
+        <v>122.71961835923393</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -2083,7 +2139,7 @@
         <v>44531</v>
       </c>
       <c r="B205" s="3">
-        <v>132.0583247934897</v>
+        <v>132.07185476401401</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -2091,7 +2147,7 @@
         <v>44562</v>
       </c>
       <c r="B206" s="3">
-        <v>107.7995692861452</v>
+        <v>107.79352210002308</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -2099,7 +2155,7 @@
         <v>44593</v>
       </c>
       <c r="B207" s="3">
-        <v>111.29248223998577</v>
+        <v>111.3344173539782</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -2107,7 +2163,7 @@
         <v>44621</v>
       </c>
       <c r="B208" s="3">
-        <v>119.86220272887344</v>
+        <v>119.90327276302554</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -2115,7 +2171,7 @@
         <v>44652</v>
       </c>
       <c r="B209" s="3">
-        <v>115.17852021140729</v>
+        <v>115.19305706392633</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -2123,7 +2179,7 @@
         <v>44682</v>
       </c>
       <c r="B210" s="3">
-        <v>118.95789900779874</v>
+        <v>118.95252545821151</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -2131,7 +2187,7 @@
         <v>44713</v>
       </c>
       <c r="B211" s="3">
-        <v>118.56594886960798</v>
+        <v>118.540843263342</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -2139,7 +2195,7 @@
         <v>44743</v>
       </c>
       <c r="B212" s="3">
-        <v>120.10244999241269</v>
+        <v>120.0801470260747</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -2147,7 +2203,7 @@
         <v>44774</v>
       </c>
       <c r="B213" s="3">
-        <v>121.80826847210081</v>
+        <v>121.77305923366633</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -2155,7 +2211,7 @@
         <v>44805</v>
       </c>
       <c r="B214" s="3">
-        <v>120.69295608283552</v>
+        <v>120.67003618535426</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -2163,7 +2219,7 @@
         <v>44835</v>
       </c>
       <c r="B215" s="3">
-        <v>119.88598992504105</v>
+        <v>120.03219192291694</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -2171,7 +2227,7 @@
         <v>44866</v>
       </c>
       <c r="B216" s="3">
-        <v>122.61888130575251</v>
+        <v>122.56205754402691</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -2179,7 +2235,7 @@
         <v>44896</v>
       </c>
       <c r="B217" s="3">
-        <v>132.47801126652107</v>
+        <v>132.40804947393627</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -2187,7 +2243,7 @@
         <v>44927</v>
       </c>
       <c r="B218" s="3">
-        <v>111.82792540319606</v>
+        <v>111.74428540363637</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -2195,7 +2251,7 @@
         <v>44958</v>
       </c>
       <c r="B219" s="3">
-        <v>113.66626328556926</v>
+        <v>113.56100658651422</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -2203,7 +2259,7 @@
         <v>44986</v>
       </c>
       <c r="B220" s="3">
-        <v>121.26839585326135</v>
+        <v>121.15119918121214</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -2211,7 +2267,7 @@
         <v>45017</v>
       </c>
       <c r="B221" s="3">
-        <v>113.98878327203623</v>
+        <v>113.88321596650766</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -2219,7 +2275,7 @@
         <v>45047</v>
       </c>
       <c r="B222" s="3">
-        <v>118.79316469034771</v>
+        <v>118.67302632872627</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -2227,7 +2283,7 @@
         <v>45078</v>
       </c>
       <c r="B223" s="3">
-        <v>120.66958338002274</v>
+        <v>120.54240052874685</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -2235,7 +2291,7 @@
         <v>45108</v>
       </c>
       <c r="B224" s="3">
-        <v>120.37812935915863</v>
+        <v>120.2807918327091</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -2243,7 +2299,7 @@
         <v>45139</v>
       </c>
       <c r="B225" s="3">
-        <v>121.89887087988858</v>
+        <v>121.8152825140192</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -2251,7 +2307,7 @@
         <v>45170</v>
       </c>
       <c r="B226" s="3">
-        <v>118.8799276401858</v>
+        <v>119.19413020460819</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -2259,7 +2315,7 @@
         <v>45200</v>
       </c>
       <c r="B227" s="3">
-        <v>118.56893565918813</v>
+        <v>118.64928926843812</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -2267,7 +2323,7 @@
         <v>45231</v>
       </c>
       <c r="B228" s="3">
-        <v>125.53651565179125</v>
+        <v>125.86123793764867</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -2275,7 +2331,7 @@
         <v>45261</v>
       </c>
       <c r="B229" s="3">
-        <v>132.7488344517806</v>
+        <v>132.86946377365973</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -2283,7 +2339,7 @@
         <v>45292</v>
       </c>
       <c r="B230" s="3">
-        <v>113.53388063391911</v>
+        <v>113.52587133197029</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -2291,7 +2347,7 @@
         <v>45323</v>
       </c>
       <c r="B231" s="3">
-        <v>116.2359740568327</v>
+        <v>116.40660680891757</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -2299,7 +2355,7 @@
         <v>45352</v>
       </c>
       <c r="B232" s="3">
-        <v>120.03452094977123</v>
+        <v>119.06109580235173</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -2307,7 +2363,7 @@
         <v>45383</v>
       </c>
       <c r="B233" s="3">
-        <v>120.48778673898764</v>
+        <v>120.57155842999603</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -2315,7 +2371,7 @@
         <v>45413</v>
       </c>
       <c r="B234" s="3">
-        <v>121.58892183182653</v>
+        <v>121.65891684663121</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -2323,7 +2379,7 @@
         <v>45444</v>
       </c>
       <c r="B235" s="3">
-        <v>119.41331168302953</v>
+        <v>118.98787841375989</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -2331,7 +2387,7 @@
         <v>45474</v>
       </c>
       <c r="B236" s="3">
-        <v>124.95542129707225</v>
+        <v>124.46093006503121</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -2339,10 +2395,27 @@
         <v>45505</v>
       </c>
       <c r="B237" s="3">
-        <v>124.36573527822847</v>
+        <v>123.73041175718271</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B238" s="3">
+        <v>120.63788753704823</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B239" s="4">
+        <v>123.39442761888509</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>